--- a/results/TCL.xlsx
+++ b/results/TCL.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P127"/>
+  <dimension ref="A1:P171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6558,6 +6558,2102 @@
       </c>
       <c r="P127" t="n">
         <v>-20.15855646890579</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>70</v>
+      </c>
+      <c r="C128" t="inlineStr"/>
+      <c r="D128" t="n">
+        <v>0.6400306224822998</v>
+      </c>
+      <c r="E128" t="n">
+        <v>18.80735508475934</v>
+      </c>
+      <c r="F128" t="b">
+        <v>1</v>
+      </c>
+      <c r="G128" t="n">
+        <v>24.77060759930311</v>
+      </c>
+      <c r="H128" t="n">
+        <v>26</v>
+      </c>
+      <c r="I128" t="n">
+        <v>-16.51379052002983</v>
+      </c>
+      <c r="J128" t="n">
+        <v>17</v>
+      </c>
+      <c r="K128" t="b">
+        <v>0</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
+        <v>5.963252514543772</v>
+      </c>
+      <c r="O128" t="inlineStr"/>
+      <c r="P128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>212</v>
+      </c>
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="n">
+        <v>0.9292184710502625</v>
+      </c>
+      <c r="E129" t="n">
+        <v>20.37915549235428</v>
+      </c>
+      <c r="F129" t="b">
+        <v>1</v>
+      </c>
+      <c r="G129" t="n">
+        <v>58.92582160230278</v>
+      </c>
+      <c r="H129" t="n">
+        <v>38</v>
+      </c>
+      <c r="I129" t="n">
+        <v>-11.53239945370565</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="b">
+        <v>1</v>
+      </c>
+      <c r="L129" t="n">
+        <v>19</v>
+      </c>
+      <c r="M129" t="n">
+        <v>6.793043278128719</v>
+      </c>
+      <c r="N129" t="n">
+        <v>38.5466661099485</v>
+      </c>
+      <c r="O129" t="n">
+        <v>-13.58611221422556</v>
+      </c>
+      <c r="P129" t="n">
+        <v>-52.13277832417406</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>244</v>
+      </c>
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" t="n">
+        <v>1.253637433052063</v>
+      </c>
+      <c r="E130" t="n">
+        <v>9.367757949988556</v>
+      </c>
+      <c r="F130" t="b">
+        <v>1</v>
+      </c>
+      <c r="G130" t="n">
+        <v>17.79865937807045</v>
+      </c>
+      <c r="H130" t="n">
+        <v>6</v>
+      </c>
+      <c r="I130" t="n">
+        <v>-15.45665620679588</v>
+      </c>
+      <c r="J130" t="n">
+        <v>20</v>
+      </c>
+      <c r="K130" t="b">
+        <v>1</v>
+      </c>
+      <c r="L130" t="n">
+        <v>11</v>
+      </c>
+      <c r="M130" t="n">
+        <v>7.25999600809146</v>
+      </c>
+      <c r="N130" t="n">
+        <v>8.430901428081897</v>
+      </c>
+      <c r="O130" t="n">
+        <v>-2.107761941897096</v>
+      </c>
+      <c r="P130" t="n">
+        <v>-10.53866336997899</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>286</v>
+      </c>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="n">
+        <v>1.304722905158997</v>
+      </c>
+      <c r="E131" t="n">
+        <v>-11.76844657590644</v>
+      </c>
+      <c r="F131" t="b">
+        <v>0</v>
+      </c>
+      <c r="G131" t="n">
+        <v>9.360950426418688</v>
+      </c>
+      <c r="H131" t="n">
+        <v>7</v>
+      </c>
+      <c r="I131" t="n">
+        <v>-18.78173539790497</v>
+      </c>
+      <c r="J131" t="n">
+        <v>44</v>
+      </c>
+      <c r="K131" t="b">
+        <v>1</v>
+      </c>
+      <c r="L131" t="n">
+        <v>11</v>
+      </c>
+      <c r="M131" t="n">
+        <v>0.8100278405954823</v>
+      </c>
+      <c r="N131" t="n">
+        <v>21.12939700232513</v>
+      </c>
+      <c r="O131" t="n">
+        <v>12.57847441650192</v>
+      </c>
+      <c r="P131" t="n">
+        <v>-8.550922585823205</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>345</v>
+      </c>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="n">
+        <v>1.201627731323242</v>
+      </c>
+      <c r="E132" t="n">
+        <v>4.547665948676091</v>
+      </c>
+      <c r="F132" t="b">
+        <v>1</v>
+      </c>
+      <c r="G132" t="n">
+        <v>27.95511216512944</v>
+      </c>
+      <c r="H132" t="n">
+        <v>32</v>
+      </c>
+      <c r="I132" t="n">
+        <v>-6.683139193921455</v>
+      </c>
+      <c r="J132" t="n">
+        <v>5</v>
+      </c>
+      <c r="K132" t="b">
+        <v>1</v>
+      </c>
+      <c r="L132" t="n">
+        <v>45</v>
+      </c>
+      <c r="M132" t="n">
+        <v>7.431599097776346</v>
+      </c>
+      <c r="N132" t="n">
+        <v>23.40744621645335</v>
+      </c>
+      <c r="O132" t="n">
+        <v>2.883933149100255</v>
+      </c>
+      <c r="P132" t="n">
+        <v>-20.5235130673531</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>360</v>
+      </c>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="n">
+        <v>1.252191066741943</v>
+      </c>
+      <c r="E133" t="n">
+        <v>10.28401182771745</v>
+      </c>
+      <c r="F133" t="b">
+        <v>1</v>
+      </c>
+      <c r="G133" t="n">
+        <v>22.78829902711789</v>
+      </c>
+      <c r="H133" t="n">
+        <v>17</v>
+      </c>
+      <c r="I133" t="n">
+        <v>-2.612835557209716</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="b">
+        <v>1</v>
+      </c>
+      <c r="L133" t="n">
+        <v>30</v>
+      </c>
+      <c r="M133" t="n">
+        <v>3.093523125167791</v>
+      </c>
+      <c r="N133" t="n">
+        <v>12.50428719940044</v>
+      </c>
+      <c r="O133" t="n">
+        <v>-7.190488702549662</v>
+      </c>
+      <c r="P133" t="n">
+        <v>-19.6947759019501</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>414</v>
+      </c>
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="n">
+        <v>1.412139415740967</v>
+      </c>
+      <c r="E134" t="n">
+        <v>74.08385900115179</v>
+      </c>
+      <c r="F134" t="b">
+        <v>1</v>
+      </c>
+      <c r="G134" t="n">
+        <v>91.98035183846318</v>
+      </c>
+      <c r="H134" t="n">
+        <v>48</v>
+      </c>
+      <c r="I134" t="n">
+        <v>-1.766018315832531</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="b">
+        <v>0</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
+        <v>17.89649283731138</v>
+      </c>
+      <c r="O134" t="inlineStr"/>
+      <c r="P134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>431</v>
+      </c>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="n">
+        <v>1.549553990364075</v>
+      </c>
+      <c r="E135" t="n">
+        <v>64.45612877878165</v>
+      </c>
+      <c r="F135" t="b">
+        <v>1</v>
+      </c>
+      <c r="G135" t="n">
+        <v>74.95551853292686</v>
+      </c>
+      <c r="H135" t="n">
+        <v>31</v>
+      </c>
+      <c r="I135" t="n">
+        <v>-2.479348018725508</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
+      <c r="K135" t="b">
+        <v>1</v>
+      </c>
+      <c r="L135" t="n">
+        <v>45</v>
+      </c>
+      <c r="M135" t="n">
+        <v>52.93744303713912</v>
+      </c>
+      <c r="N135" t="n">
+        <v>10.49938975414521</v>
+      </c>
+      <c r="O135" t="n">
+        <v>-11.51868574164253</v>
+      </c>
+      <c r="P135" t="n">
+        <v>-22.01807549578774</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>438</v>
+      </c>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="n">
+        <v>1.728840231895447</v>
+      </c>
+      <c r="E136" t="n">
+        <v>43.01921667225304</v>
+      </c>
+      <c r="F136" t="b">
+        <v>1</v>
+      </c>
+      <c r="G136" t="n">
+        <v>56.81207371122068</v>
+      </c>
+      <c r="H136" t="n">
+        <v>24</v>
+      </c>
+      <c r="I136" t="n">
+        <v>-5.925917521251564</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
+      <c r="K136" t="b">
+        <v>1</v>
+      </c>
+      <c r="L136" t="n">
+        <v>38</v>
+      </c>
+      <c r="M136" t="n">
+        <v>37.07734281174987</v>
+      </c>
+      <c r="N136" t="n">
+        <v>13.79285703896764</v>
+      </c>
+      <c r="O136" t="n">
+        <v>-5.941873860503165</v>
+      </c>
+      <c r="P136" t="n">
+        <v>-19.7347308994708</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>494</v>
+      </c>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="n">
+        <v>2.603435277938843</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.4021118357917722</v>
+      </c>
+      <c r="F137" t="b">
+        <v>1</v>
+      </c>
+      <c r="G137" t="n">
+        <v>3.392813170123309</v>
+      </c>
+      <c r="H137" t="n">
+        <v>44</v>
+      </c>
+      <c r="I137" t="n">
+        <v>-17.32807012686371</v>
+      </c>
+      <c r="J137" t="n">
+        <v>5</v>
+      </c>
+      <c r="K137" t="b">
+        <v>1</v>
+      </c>
+      <c r="L137" t="n">
+        <v>28</v>
+      </c>
+      <c r="M137" t="n">
+        <v>-7.534580711251393</v>
+      </c>
+      <c r="N137" t="n">
+        <v>2.990701334331537</v>
+      </c>
+      <c r="O137" t="n">
+        <v>-7.936692547043165</v>
+      </c>
+      <c r="P137" t="n">
+        <v>-10.9273938813747</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>511</v>
+      </c>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="n">
+        <v>2.535856485366821</v>
+      </c>
+      <c r="E138" t="n">
+        <v>16.26978288108492</v>
+      </c>
+      <c r="F138" t="b">
+        <v>1</v>
+      </c>
+      <c r="G138" t="n">
+        <v>17.17814008464586</v>
+      </c>
+      <c r="H138" t="n">
+        <v>52</v>
+      </c>
+      <c r="I138" t="n">
+        <v>-8.309875617380527</v>
+      </c>
+      <c r="J138" t="n">
+        <v>16</v>
+      </c>
+      <c r="K138" t="b">
+        <v>1</v>
+      </c>
+      <c r="L138" t="n">
+        <v>11</v>
+      </c>
+      <c r="M138" t="n">
+        <v>-5.070442292434116</v>
+      </c>
+      <c r="N138" t="n">
+        <v>0.9083572035609428</v>
+      </c>
+      <c r="O138" t="n">
+        <v>-21.34022517351903</v>
+      </c>
+      <c r="P138" t="n">
+        <v>-22.24858237707998</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>548</v>
+      </c>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="n">
+        <v>2.706595420837402</v>
+      </c>
+      <c r="E139" t="n">
+        <v>7.097875634541913</v>
+      </c>
+      <c r="F139" t="b">
+        <v>1</v>
+      </c>
+      <c r="G139" t="n">
+        <v>22.69394724455758</v>
+      </c>
+      <c r="H139" t="n">
+        <v>34</v>
+      </c>
+      <c r="I139" t="n">
+        <v>-6.252704287063068</v>
+      </c>
+      <c r="J139" t="n">
+        <v>46</v>
+      </c>
+      <c r="K139" t="b">
+        <v>1</v>
+      </c>
+      <c r="L139" t="n">
+        <v>42</v>
+      </c>
+      <c r="M139" t="n">
+        <v>12.67279782641097</v>
+      </c>
+      <c r="N139" t="n">
+        <v>15.59607161001567</v>
+      </c>
+      <c r="O139" t="n">
+        <v>5.574922191869055</v>
+      </c>
+      <c r="P139" t="n">
+        <v>-10.02114941814662</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>558</v>
+      </c>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="n">
+        <v>2.795579433441162</v>
+      </c>
+      <c r="E140" t="n">
+        <v>3.262791980903176</v>
+      </c>
+      <c r="F140" t="b">
+        <v>1</v>
+      </c>
+      <c r="G140" t="n">
+        <v>18.78856733747488</v>
+      </c>
+      <c r="H140" t="n">
+        <v>24</v>
+      </c>
+      <c r="I140" t="n">
+        <v>-9.236704828596579</v>
+      </c>
+      <c r="J140" t="n">
+        <v>36</v>
+      </c>
+      <c r="K140" t="b">
+        <v>1</v>
+      </c>
+      <c r="L140" t="n">
+        <v>32</v>
+      </c>
+      <c r="M140" t="n">
+        <v>9.086393683515686</v>
+      </c>
+      <c r="N140" t="n">
+        <v>15.52577535657171</v>
+      </c>
+      <c r="O140" t="n">
+        <v>5.82360170261251</v>
+      </c>
+      <c r="P140" t="n">
+        <v>-9.702173653959198</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>582</v>
+      </c>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="n">
+        <v>3.221012115478516</v>
+      </c>
+      <c r="E141" t="n">
+        <v>-21.52008630113139</v>
+      </c>
+      <c r="F141" t="b">
+        <v>0</v>
+      </c>
+      <c r="G141" t="n">
+        <v>3.098921665263865</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>-30.39732299499714</v>
+      </c>
+      <c r="J141" t="n">
+        <v>42</v>
+      </c>
+      <c r="K141" t="b">
+        <v>1</v>
+      </c>
+      <c r="L141" t="n">
+        <v>8</v>
+      </c>
+      <c r="M141" t="n">
+        <v>-5.321784669972502</v>
+      </c>
+      <c r="N141" t="n">
+        <v>24.61900796639526</v>
+      </c>
+      <c r="O141" t="n">
+        <v>16.19830163115889</v>
+      </c>
+      <c r="P141" t="n">
+        <v>-8.420706335236366</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>652</v>
+      </c>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="n">
+        <v>2.433279037475586</v>
+      </c>
+      <c r="E142" t="n">
+        <v>-22.15005381194743</v>
+      </c>
+      <c r="F142" t="b">
+        <v>0</v>
+      </c>
+      <c r="G142" t="n">
+        <v>11.81818547064551</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>-34.83179893390346</v>
+      </c>
+      <c r="J142" t="n">
+        <v>24</v>
+      </c>
+      <c r="K142" t="b">
+        <v>1</v>
+      </c>
+      <c r="L142" t="n">
+        <v>8</v>
+      </c>
+      <c r="M142" t="n">
+        <v>-2.727242798095848</v>
+      </c>
+      <c r="N142" t="n">
+        <v>33.96823928259294</v>
+      </c>
+      <c r="O142" t="n">
+        <v>19.42281101385158</v>
+      </c>
+      <c r="P142" t="n">
+        <v>-14.54542826874136</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>709</v>
+      </c>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="n">
+        <v>2.11716628074646</v>
+      </c>
+      <c r="E143" t="n">
+        <v>21.27394935990709</v>
+      </c>
+      <c r="F143" t="b">
+        <v>1</v>
+      </c>
+      <c r="G143" t="n">
+        <v>26.41752526276079</v>
+      </c>
+      <c r="H143" t="n">
+        <v>10</v>
+      </c>
+      <c r="I143" t="n">
+        <v>-7.017555452763265</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="b">
+        <v>1</v>
+      </c>
+      <c r="L143" t="n">
+        <v>19</v>
+      </c>
+      <c r="M143" t="n">
+        <v>16.77932946015214</v>
+      </c>
+      <c r="N143" t="n">
+        <v>5.143575902853698</v>
+      </c>
+      <c r="O143" t="n">
+        <v>-4.494619899754944</v>
+      </c>
+      <c r="P143" t="n">
+        <v>-9.638195802608642</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>710</v>
+      </c>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="n">
+        <v>2.576813459396362</v>
+      </c>
+      <c r="E144" t="n">
+        <v>1.542884355657448</v>
+      </c>
+      <c r="F144" t="b">
+        <v>1</v>
+      </c>
+      <c r="G144" t="n">
+        <v>3.867402898628598</v>
+      </c>
+      <c r="H144" t="n">
+        <v>9</v>
+      </c>
+      <c r="I144" t="n">
+        <v>-23.55087196869896</v>
+      </c>
+      <c r="J144" t="n">
+        <v>29</v>
+      </c>
+      <c r="K144" t="b">
+        <v>1</v>
+      </c>
+      <c r="L144" t="n">
+        <v>18</v>
+      </c>
+      <c r="M144" t="n">
+        <v>-4.051549513741704</v>
+      </c>
+      <c r="N144" t="n">
+        <v>2.32451854297115</v>
+      </c>
+      <c r="O144" t="n">
+        <v>-5.594433869399151</v>
+      </c>
+      <c r="P144" t="n">
+        <v>-7.918952412370301</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>718</v>
+      </c>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="n">
+        <v>2.629014253616333</v>
+      </c>
+      <c r="E145" t="n">
+        <v>-2.131662749724877</v>
+      </c>
+      <c r="F145" t="b">
+        <v>0</v>
+      </c>
+      <c r="G145" t="n">
+        <v>1.805047809676175</v>
+      </c>
+      <c r="H145" t="n">
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>-25.06881931157424</v>
+      </c>
+      <c r="J145" t="n">
+        <v>21</v>
+      </c>
+      <c r="K145" t="b">
+        <v>1</v>
+      </c>
+      <c r="L145" t="n">
+        <v>10</v>
+      </c>
+      <c r="M145" t="n">
+        <v>-5.956668633072713</v>
+      </c>
+      <c r="N145" t="n">
+        <v>3.936710559401052</v>
+      </c>
+      <c r="O145" t="n">
+        <v>-3.825005883347836</v>
+      </c>
+      <c r="P145" t="n">
+        <v>-7.761716442748888</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>751</v>
+      </c>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="n">
+        <v>2.322573900222778</v>
+      </c>
+      <c r="E146" t="n">
+        <v>11.33644528542133</v>
+      </c>
+      <c r="F146" t="b">
+        <v>1</v>
+      </c>
+      <c r="G146" t="n">
+        <v>20.00335771054228</v>
+      </c>
+      <c r="H146" t="n">
+        <v>48</v>
+      </c>
+      <c r="I146" t="n">
+        <v>-1.898745719107242</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="b">
+        <v>0</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="n">
+        <v>8.666912425120946</v>
+      </c>
+      <c r="O146" t="inlineStr"/>
+      <c r="P146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>778</v>
+      </c>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="n">
+        <v>2.678504467010498</v>
+      </c>
+      <c r="E147" t="n">
+        <v>11.52359587846752</v>
+      </c>
+      <c r="F147" t="b">
+        <v>1</v>
+      </c>
+      <c r="G147" t="n">
+        <v>14.4896667921114</v>
+      </c>
+      <c r="H147" t="n">
+        <v>45</v>
+      </c>
+      <c r="I147" t="n">
+        <v>-12.51517138298965</v>
+      </c>
+      <c r="J147" t="n">
+        <v>24</v>
+      </c>
+      <c r="K147" t="b">
+        <v>0</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="n">
+        <v>2.966070913643879</v>
+      </c>
+      <c r="O147" t="inlineStr"/>
+      <c r="P147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>799</v>
+      </c>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="n">
+        <v>2.766520977020264</v>
+      </c>
+      <c r="E148" t="n">
+        <v>19.91565570429252</v>
+      </c>
+      <c r="F148" t="b">
+        <v>1</v>
+      </c>
+      <c r="G148" t="n">
+        <v>21.09514461790405</v>
+      </c>
+      <c r="H148" t="n">
+        <v>52</v>
+      </c>
+      <c r="I148" t="n">
+        <v>-15.29848998336596</v>
+      </c>
+      <c r="J148" t="n">
+        <v>3</v>
+      </c>
+      <c r="K148" t="b">
+        <v>0</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="n">
+        <v>1.179488913611532</v>
+      </c>
+      <c r="O148" t="inlineStr"/>
+      <c r="P148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>818</v>
+      </c>
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="n">
+        <v>2.916202306747437</v>
+      </c>
+      <c r="E149" t="n">
+        <v>15.81209700673813</v>
+      </c>
+      <c r="F149" t="b">
+        <v>1</v>
+      </c>
+      <c r="G149" t="n">
+        <v>16.46482271644358</v>
+      </c>
+      <c r="H149" t="n">
+        <v>45</v>
+      </c>
+      <c r="I149" t="n">
+        <v>-5.840711063694916</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="b">
+        <v>1</v>
+      </c>
+      <c r="L149" t="n">
+        <v>50</v>
+      </c>
+      <c r="M149" t="n">
+        <v>12.45521479525017</v>
+      </c>
+      <c r="N149" t="n">
+        <v>0.652725709705452</v>
+      </c>
+      <c r="O149" t="n">
+        <v>-3.356882211487951</v>
+      </c>
+      <c r="P149" t="n">
+        <v>-4.009607921193403</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>862</v>
+      </c>
+      <c r="C150" t="inlineStr"/>
+      <c r="D150" t="n">
+        <v>3.388192415237427</v>
+      </c>
+      <c r="E150" t="n">
+        <v>14.54436103473698</v>
+      </c>
+      <c r="F150" t="b">
+        <v>1</v>
+      </c>
+      <c r="G150" t="n">
+        <v>18.92400946663802</v>
+      </c>
+      <c r="H150" t="n">
+        <v>42</v>
+      </c>
+      <c r="I150" t="n">
+        <v>-3.691848407931151</v>
+      </c>
+      <c r="J150" t="n">
+        <v>6</v>
+      </c>
+      <c r="K150" t="b">
+        <v>1</v>
+      </c>
+      <c r="L150" t="n">
+        <v>6</v>
+      </c>
+      <c r="M150" t="n">
+        <v>-3.210291329128501</v>
+      </c>
+      <c r="N150" t="n">
+        <v>4.379648431901039</v>
+      </c>
+      <c r="O150" t="n">
+        <v>-17.75465236386548</v>
+      </c>
+      <c r="P150" t="n">
+        <v>-22.13430079576652</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>885</v>
+      </c>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="n">
+        <v>3.496806621551514</v>
+      </c>
+      <c r="E151" t="n">
+        <v>20.77896345932649</v>
+      </c>
+      <c r="F151" t="b">
+        <v>1</v>
+      </c>
+      <c r="G151" t="n">
+        <v>22.36816947514434</v>
+      </c>
+      <c r="H151" t="n">
+        <v>52</v>
+      </c>
+      <c r="I151" t="n">
+        <v>-2.711317091425373</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="b">
+        <v>0</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="n">
+        <v>1.589206015817851</v>
+      </c>
+      <c r="O151" t="inlineStr"/>
+      <c r="P151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>891</v>
+      </c>
+      <c r="C152" t="inlineStr"/>
+      <c r="D152" t="n">
+        <v>3.77565860748291</v>
+      </c>
+      <c r="E152" t="n">
+        <v>12.63343744040575</v>
+      </c>
+      <c r="F152" t="b">
+        <v>1</v>
+      </c>
+      <c r="G152" t="n">
+        <v>15.73202630109785</v>
+      </c>
+      <c r="H152" t="n">
+        <v>50</v>
+      </c>
+      <c r="I152" t="n">
+        <v>-3.692759045383695</v>
+      </c>
+      <c r="J152" t="n">
+        <v>9</v>
+      </c>
+      <c r="K152" t="b">
+        <v>0</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="n">
+        <v>3.098588860692095</v>
+      </c>
+      <c r="O152" t="inlineStr"/>
+      <c r="P152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>936</v>
+      </c>
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="n">
+        <v>4.211706161499023</v>
+      </c>
+      <c r="E153" t="n">
+        <v>37.67711117058783</v>
+      </c>
+      <c r="F153" t="b">
+        <v>1</v>
+      </c>
+      <c r="G153" t="n">
+        <v>39.29857095863734</v>
+      </c>
+      <c r="H153" t="n">
+        <v>49</v>
+      </c>
+      <c r="I153" t="n">
+        <v>-2.083327550341183</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
+      <c r="K153" t="b">
+        <v>0</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="n">
+        <v>1.621459788049513</v>
+      </c>
+      <c r="O153" t="inlineStr"/>
+      <c r="P153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>946</v>
+      </c>
+      <c r="C154" t="inlineStr"/>
+      <c r="D154" t="n">
+        <v>4.33457088470459</v>
+      </c>
+      <c r="E154" t="n">
+        <v>44.23022723017421</v>
+      </c>
+      <c r="F154" t="b">
+        <v>1</v>
+      </c>
+      <c r="G154" t="n">
+        <v>49.2432287048734</v>
+      </c>
+      <c r="H154" t="n">
+        <v>51</v>
+      </c>
+      <c r="I154" t="n">
+        <v>-2.325588138236191</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="b">
+        <v>0</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="n">
+        <v>5.013001474699188</v>
+      </c>
+      <c r="O154" t="inlineStr"/>
+      <c r="P154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>955</v>
+      </c>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="n">
+        <v>4.668753623962402</v>
+      </c>
+      <c r="E155" t="n">
+        <v>34.96688722783151</v>
+      </c>
+      <c r="F155" t="b">
+        <v>1</v>
+      </c>
+      <c r="G155" t="n">
+        <v>40.8211858497048</v>
+      </c>
+      <c r="H155" t="n">
+        <v>45</v>
+      </c>
+      <c r="I155" t="n">
+        <v>-1.950580667925764</v>
+      </c>
+      <c r="J155" t="n">
+        <v>10</v>
+      </c>
+      <c r="K155" t="b">
+        <v>0</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="n">
+        <v>5.854298621873291</v>
+      </c>
+      <c r="O155" t="inlineStr"/>
+      <c r="P155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>977</v>
+      </c>
+      <c r="C156" t="inlineStr"/>
+      <c r="D156" t="n">
+        <v>5.312301158905029</v>
+      </c>
+      <c r="E156" t="n">
+        <v>22.88655392752145</v>
+      </c>
+      <c r="F156" t="b">
+        <v>1</v>
+      </c>
+      <c r="G156" t="n">
+        <v>27.91699573854775</v>
+      </c>
+      <c r="H156" t="n">
+        <v>49</v>
+      </c>
+      <c r="I156" t="n">
+        <v>-2.400001321698159</v>
+      </c>
+      <c r="J156" t="n">
+        <v>2</v>
+      </c>
+      <c r="K156" t="b">
+        <v>0</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="n">
+        <v>5.0304418110263</v>
+      </c>
+      <c r="O156" t="inlineStr"/>
+      <c r="P156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" t="n">
+        <v>6.313845157623291</v>
+      </c>
+      <c r="E157" t="n">
+        <v>23.07153193471264</v>
+      </c>
+      <c r="F157" t="b">
+        <v>1</v>
+      </c>
+      <c r="G157" t="n">
+        <v>29.55979979639498</v>
+      </c>
+      <c r="H157" t="n">
+        <v>50</v>
+      </c>
+      <c r="I157" t="n">
+        <v>-7.628975786846957</v>
+      </c>
+      <c r="J157" t="n">
+        <v>5</v>
+      </c>
+      <c r="K157" t="b">
+        <v>0</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="n">
+        <v>6.488267861682338</v>
+      </c>
+      <c r="O157" t="inlineStr"/>
+      <c r="P157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>1018</v>
+      </c>
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="n">
+        <v>6.275914192199707</v>
+      </c>
+      <c r="E158" t="n">
+        <v>20.12373014537958</v>
+      </c>
+      <c r="F158" t="b">
+        <v>1</v>
+      </c>
+      <c r="G158" t="n">
+        <v>33.69970711454272</v>
+      </c>
+      <c r="H158" t="n">
+        <v>44</v>
+      </c>
+      <c r="I158" t="n">
+        <v>-1.515155787009942</v>
+      </c>
+      <c r="J158" t="n">
+        <v>1</v>
+      </c>
+      <c r="K158" t="b">
+        <v>1</v>
+      </c>
+      <c r="L158" t="n">
+        <v>48</v>
+      </c>
+      <c r="M158" t="n">
+        <v>19.17284641181211</v>
+      </c>
+      <c r="N158" t="n">
+        <v>13.57597696916314</v>
+      </c>
+      <c r="O158" t="n">
+        <v>-0.9508837335674691</v>
+      </c>
+      <c r="P158" t="n">
+        <v>-14.52686070273061</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>1026</v>
+      </c>
+      <c r="C159" t="inlineStr"/>
+      <c r="D159" t="n">
+        <v>6.68717098236084</v>
+      </c>
+      <c r="E159" t="n">
+        <v>3.217580929397247</v>
+      </c>
+      <c r="F159" t="b">
+        <v>1</v>
+      </c>
+      <c r="G159" t="n">
+        <v>25.47725960445998</v>
+      </c>
+      <c r="H159" t="n">
+        <v>36</v>
+      </c>
+      <c r="I159" t="n">
+        <v>-6.470027802213875</v>
+      </c>
+      <c r="J159" t="n">
+        <v>1</v>
+      </c>
+      <c r="K159" t="b">
+        <v>1</v>
+      </c>
+      <c r="L159" t="n">
+        <v>40</v>
+      </c>
+      <c r="M159" t="n">
+        <v>11.84379165622624</v>
+      </c>
+      <c r="N159" t="n">
+        <v>22.25967867506273</v>
+      </c>
+      <c r="O159" t="n">
+        <v>8.626210726828996</v>
+      </c>
+      <c r="P159" t="n">
+        <v>-13.63346794823373</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>1047</v>
+      </c>
+      <c r="C160" t="inlineStr"/>
+      <c r="D160" t="n">
+        <v>7.412904739379883</v>
+      </c>
+      <c r="E160" t="n">
+        <v>10.10254221217719</v>
+      </c>
+      <c r="F160" t="b">
+        <v>1</v>
+      </c>
+      <c r="G160" t="n">
+        <v>13.19286013694216</v>
+      </c>
+      <c r="H160" t="n">
+        <v>15</v>
+      </c>
+      <c r="I160" t="n">
+        <v>-15.47431851421394</v>
+      </c>
+      <c r="J160" t="n">
+        <v>29</v>
+      </c>
+      <c r="K160" t="b">
+        <v>1</v>
+      </c>
+      <c r="L160" t="n">
+        <v>19</v>
+      </c>
+      <c r="M160" t="n">
+        <v>0.8941277968309251</v>
+      </c>
+      <c r="N160" t="n">
+        <v>3.090317924764976</v>
+      </c>
+      <c r="O160" t="n">
+        <v>-9.208414415346262</v>
+      </c>
+      <c r="P160" t="n">
+        <v>-12.29873234011124</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>1089</v>
+      </c>
+      <c r="C161" t="inlineStr"/>
+      <c r="D161" t="n">
+        <v>7.43524694442749</v>
+      </c>
+      <c r="E161" t="n">
+        <v>10.04864218795764</v>
+      </c>
+      <c r="F161" t="b">
+        <v>1</v>
+      </c>
+      <c r="G161" t="n">
+        <v>23.00385891249716</v>
+      </c>
+      <c r="H161" t="n">
+        <v>45</v>
+      </c>
+      <c r="I161" t="n">
+        <v>-5.662103954421383</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="b">
+        <v>1</v>
+      </c>
+      <c r="L161" t="n">
+        <v>43</v>
+      </c>
+      <c r="M161" t="n">
+        <v>15.25037480336331</v>
+      </c>
+      <c r="N161" t="n">
+        <v>12.95521672453952</v>
+      </c>
+      <c r="O161" t="n">
+        <v>5.201732615405671</v>
+      </c>
+      <c r="P161" t="n">
+        <v>-7.753484109133849</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>1125</v>
+      </c>
+      <c r="C162" t="inlineStr"/>
+      <c r="D162" t="n">
+        <v>8.589963912963867</v>
+      </c>
+      <c r="E162" t="n">
+        <v>-4.58934655826486</v>
+      </c>
+      <c r="F162" t="b">
+        <v>0</v>
+      </c>
+      <c r="G162" t="n">
+        <v>6.468906668127657</v>
+      </c>
+      <c r="H162" t="n">
+        <v>9</v>
+      </c>
+      <c r="I162" t="n">
+        <v>-8.897152614504474</v>
+      </c>
+      <c r="J162" t="n">
+        <v>23</v>
+      </c>
+      <c r="K162" t="b">
+        <v>1</v>
+      </c>
+      <c r="L162" t="n">
+        <v>7</v>
+      </c>
+      <c r="M162" t="n">
+        <v>-0.2423053480370769</v>
+      </c>
+      <c r="N162" t="n">
+        <v>11.05825322639252</v>
+      </c>
+      <c r="O162" t="n">
+        <v>4.347041210227784</v>
+      </c>
+      <c r="P162" t="n">
+        <v>-6.711212016164733</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>1189</v>
+      </c>
+      <c r="C163" t="inlineStr"/>
+      <c r="D163" t="n">
+        <v>8.955986976623535</v>
+      </c>
+      <c r="E163" t="n">
+        <v>36.13654642678819</v>
+      </c>
+      <c r="F163" t="b">
+        <v>1</v>
+      </c>
+      <c r="G163" t="n">
+        <v>39.0612441857845</v>
+      </c>
+      <c r="H163" t="n">
+        <v>29</v>
+      </c>
+      <c r="I163" t="n">
+        <v>-2.122243955642042</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="b">
+        <v>0</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="n">
+        <v>2.924697758996309</v>
+      </c>
+      <c r="O163" t="inlineStr"/>
+      <c r="P163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>1236</v>
+      </c>
+      <c r="C164" t="inlineStr"/>
+      <c r="D164" t="n">
+        <v>11.70208549499512</v>
+      </c>
+      <c r="E164" t="n">
+        <v>-5.038700052467158</v>
+      </c>
+      <c r="F164" t="b">
+        <v>0</v>
+      </c>
+      <c r="G164" t="n">
+        <v>11.1537473107163</v>
+      </c>
+      <c r="H164" t="n">
+        <v>11</v>
+      </c>
+      <c r="I164" t="n">
+        <v>-38.47329592540332</v>
+      </c>
+      <c r="J164" t="n">
+        <v>16</v>
+      </c>
+      <c r="K164" t="b">
+        <v>1</v>
+      </c>
+      <c r="L164" t="n">
+        <v>36</v>
+      </c>
+      <c r="M164" t="n">
+        <v>-5.859088681283901</v>
+      </c>
+      <c r="N164" t="n">
+        <v>16.19244736318346</v>
+      </c>
+      <c r="O164" t="n">
+        <v>-0.820388628816743</v>
+      </c>
+      <c r="P164" t="n">
+        <v>-17.0128359920002</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>1285</v>
+      </c>
+      <c r="C165" t="inlineStr"/>
+      <c r="D165" t="n">
+        <v>12.20849800109863</v>
+      </c>
+      <c r="E165" t="n">
+        <v>-8.67686367059958</v>
+      </c>
+      <c r="F165" t="b">
+        <v>0</v>
+      </c>
+      <c r="G165" t="n">
+        <v>2.457411618856639</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>-18.13611312306306</v>
+      </c>
+      <c r="J165" t="n">
+        <v>15</v>
+      </c>
+      <c r="K165" t="b">
+        <v>1</v>
+      </c>
+      <c r="L165" t="n">
+        <v>8</v>
+      </c>
+      <c r="M165" t="n">
+        <v>-11.71152247487763</v>
+      </c>
+      <c r="N165" t="n">
+        <v>11.13427528945622</v>
+      </c>
+      <c r="O165" t="n">
+        <v>-3.034658804278047</v>
+      </c>
+      <c r="P165" t="n">
+        <v>-14.16893409373427</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>1315</v>
+      </c>
+      <c r="C166" t="inlineStr"/>
+      <c r="D166" t="n">
+        <v>11.57921600341797</v>
+      </c>
+      <c r="E166" t="n">
+        <v>3.041216344877268</v>
+      </c>
+      <c r="F166" t="b">
+        <v>1</v>
+      </c>
+      <c r="G166" t="n">
+        <v>7.448992556681794</v>
+      </c>
+      <c r="H166" t="n">
+        <v>47</v>
+      </c>
+      <c r="I166" t="n">
+        <v>-13.07253856692674</v>
+      </c>
+      <c r="J166" t="n">
+        <v>33</v>
+      </c>
+      <c r="K166" t="b">
+        <v>1</v>
+      </c>
+      <c r="L166" t="n">
+        <v>9</v>
+      </c>
+      <c r="M166" t="n">
+        <v>-4.444159658854683</v>
+      </c>
+      <c r="N166" t="n">
+        <v>4.407776211804526</v>
+      </c>
+      <c r="O166" t="n">
+        <v>-7.48537600373195</v>
+      </c>
+      <c r="P166" t="n">
+        <v>-11.89315221553648</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>1360</v>
+      </c>
+      <c r="C167" t="inlineStr"/>
+      <c r="D167" t="n">
+        <v>11.70545482635498</v>
+      </c>
+      <c r="E167" t="n">
+        <v>9.89028975663226</v>
+      </c>
+      <c r="F167" t="b">
+        <v>1</v>
+      </c>
+      <c r="G167" t="n">
+        <v>10.4842907487451</v>
+      </c>
+      <c r="H167" t="n">
+        <v>52</v>
+      </c>
+      <c r="I167" t="n">
+        <v>-10.76817091252942</v>
+      </c>
+      <c r="J167" t="n">
+        <v>24</v>
+      </c>
+      <c r="K167" t="b">
+        <v>1</v>
+      </c>
+      <c r="L167" t="n">
+        <v>8</v>
+      </c>
+      <c r="M167" t="n">
+        <v>-2.573264475916239</v>
+      </c>
+      <c r="N167" t="n">
+        <v>0.5940009921128411</v>
+      </c>
+      <c r="O167" t="n">
+        <v>-12.4635542325485</v>
+      </c>
+      <c r="P167" t="n">
+        <v>-13.05755522466134</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>1401</v>
+      </c>
+      <c r="C168" t="inlineStr"/>
+      <c r="D168" t="n">
+        <v>12.32429504394531</v>
+      </c>
+      <c r="E168" t="n">
+        <v>-1.211703820177421</v>
+      </c>
+      <c r="F168" t="b">
+        <v>0</v>
+      </c>
+      <c r="G168" t="n">
+        <v>7.404790194620695</v>
+      </c>
+      <c r="H168" t="n">
+        <v>12</v>
+      </c>
+      <c r="I168" t="n">
+        <v>-16.52220558789131</v>
+      </c>
+      <c r="J168" t="n">
+        <v>38</v>
+      </c>
+      <c r="K168" t="b">
+        <v>1</v>
+      </c>
+      <c r="L168" t="n">
+        <v>18</v>
+      </c>
+      <c r="M168" t="n">
+        <v>0.9872970279254764</v>
+      </c>
+      <c r="N168" t="n">
+        <v>8.616494014798116</v>
+      </c>
+      <c r="O168" t="n">
+        <v>2.199000848102897</v>
+      </c>
+      <c r="P168" t="n">
+        <v>-6.417493166695219</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>1410</v>
+      </c>
+      <c r="C169" t="inlineStr"/>
+      <c r="D169" t="n">
+        <v>12.71540451049805</v>
+      </c>
+      <c r="E169" t="n">
+        <v>-6.035347603417307</v>
+      </c>
+      <c r="F169" t="b">
+        <v>0</v>
+      </c>
+      <c r="G169" t="n">
+        <v>4.101157175038428</v>
+      </c>
+      <c r="H169" t="n">
+        <v>3</v>
+      </c>
+      <c r="I169" t="n">
+        <v>-19.08987503282036</v>
+      </c>
+      <c r="J169" t="n">
+        <v>29</v>
+      </c>
+      <c r="K169" t="b">
+        <v>1</v>
+      </c>
+      <c r="L169" t="n">
+        <v>9</v>
+      </c>
+      <c r="M169" t="n">
+        <v>-2.11894216694915</v>
+      </c>
+      <c r="N169" t="n">
+        <v>10.13650477845573</v>
+      </c>
+      <c r="O169" t="n">
+        <v>3.916405436468157</v>
+      </c>
+      <c r="P169" t="n">
+        <v>-6.220099341987578</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>1482</v>
+      </c>
+      <c r="C170" t="inlineStr"/>
+      <c r="D170" t="n">
+        <v>12.61151027679443</v>
+      </c>
+      <c r="E170" t="n">
+        <v>14.50677235631508</v>
+      </c>
+      <c r="F170" t="b">
+        <v>1</v>
+      </c>
+      <c r="G170" t="n">
+        <v>14.81645907287895</v>
+      </c>
+      <c r="H170" t="n">
+        <v>52</v>
+      </c>
+      <c r="I170" t="n">
+        <v>-8.493341826597224</v>
+      </c>
+      <c r="J170" t="n">
+        <v>12</v>
+      </c>
+      <c r="K170" t="b">
+        <v>1</v>
+      </c>
+      <c r="L170" t="n">
+        <v>9</v>
+      </c>
+      <c r="M170" t="n">
+        <v>-4.357459664445146</v>
+      </c>
+      <c r="N170" t="n">
+        <v>0.3096867165638795</v>
+      </c>
+      <c r="O170" t="n">
+        <v>-18.86423202076022</v>
+      </c>
+      <c r="P170" t="n">
+        <v>-19.1739187373241</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>1486</v>
+      </c>
+      <c r="C171" t="inlineStr"/>
+      <c r="D171" t="n">
+        <v>12.60219573974609</v>
+      </c>
+      <c r="E171" t="n">
+        <v>8.393089033445433</v>
+      </c>
+      <c r="F171" t="b">
+        <v>1</v>
+      </c>
+      <c r="G171" t="n">
+        <v>15.75359016478779</v>
+      </c>
+      <c r="H171" t="n">
+        <v>49</v>
+      </c>
+      <c r="I171" t="n">
+        <v>-8.425707409918729</v>
+      </c>
+      <c r="J171" t="n">
+        <v>8</v>
+      </c>
+      <c r="K171" t="b">
+        <v>1</v>
+      </c>
+      <c r="L171" t="n">
+        <v>5</v>
+      </c>
+      <c r="M171" t="n">
+        <v>-4.28676833384288</v>
+      </c>
+      <c r="N171" t="n">
+        <v>7.360501131342357</v>
+      </c>
+      <c r="O171" t="n">
+        <v>-12.67985736728831</v>
+      </c>
+      <c r="P171" t="n">
+        <v>-20.04035849863067</v>
       </c>
     </row>
   </sheetData>
@@ -6571,7 +8667,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6784,40 +8880,90 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>twelve_bar_breakout</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>44</v>
+      </c>
+      <c r="C4" t="n">
+        <v>79.54545454545455</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.55703664438905</v>
+      </c>
+      <c r="E4" t="n">
+        <v>10.81022855656939</v>
+      </c>
+      <c r="F4" t="n">
+        <v>19.35286425576757</v>
+      </c>
+      <c r="G4" t="n">
+        <v>23.29202724585112</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-10.88421206543909</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9.734990601462068</v>
+      </c>
+      <c r="J4" t="n">
+        <v>70.45454545454545</v>
+      </c>
+      <c r="K4" t="n">
+        <v>22.25806451612903</v>
+      </c>
+      <c r="L4" t="n">
+        <v>35.48387096774194</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-2.689753699143399</v>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>random_baseline</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="n">
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>500</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O5" t="n">
         <v>78.60000000000001</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P5" t="n">
         <v>14.88689589935864</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q5" t="n">
         <v>12.73390684864086</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R5" t="n">
         <v>21.18948827988443</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S5" t="n">
         <v>25.58532285016372</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T5" t="n">
         <v>-12.14653958967149</v>
       </c>
     </row>
